--- a/StructureDefinition-profile-Goal.xlsx
+++ b/StructureDefinition-profile-Goal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7039411-06:00</t>
+    <t>2026-02-09T22:05:43.140614-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,38 +422,68 @@
     <t>Goal.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Goal.extension:continuous</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.continuous|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Goal.continuous from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>After meeting the goal, ongoing activity is needed to sustain the goal objective.</t>
+  </si>
+  <si>
+    <t>Element `Goal.continuous` is will have a context of Goal based on following the parent source element upwards and mapping to `Goal`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Goal.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Goal.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -724,6 +754,9 @@
     <t>Goal.target.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -856,30 +889,27 @@
     <t>Goal.expressedBy.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Goal.expressedBy.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.source|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for Goal.source from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>This is the individual or team responsible for establishing the goal, not necessarily who recorded it.  (For that, use the Provenance resource.).</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Goal.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Goal.source` is mapped to FHIR R4 element `Goal.expressedBy`.</t>
   </si>
   <si>
     <t>Goal.expressedBy.reference</t>
@@ -990,11 +1020,20 @@
     <t>Goal.addresses.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.addresses|0.0.1-snapshot-3}
-</t>
+    <t>Goal.addresses.extension:addresses</t>
+  </si>
+  <si>
+    <t>addresses</t>
   </si>
   <si>
     <t>Cross-version extension for Goal.addresses from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/Procedure in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Goal.addresses` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Goal.addresses` is mapped to FHIR R4 element `Goal.addresses`.</t>
   </si>
   <si>
     <t>Goal.addresses.reference</t>
@@ -1372,7 +1411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1381,7 +1420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2324,7 +2363,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2343,17 +2382,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2390,16 +2427,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2420,7 +2455,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2431,43 +2466,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2515,7 +2550,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2524,7 +2559,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2533,7 +2568,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2541,14 +2576,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2561,25 +2596,25 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2628,7 +2663,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2640,24 +2675,24 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2665,34 +2700,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2717,13 +2752,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2741,13 +2776,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2756,21 +2791,21 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2778,7 +2813,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
@@ -2787,22 +2822,26 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2826,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
         <v>167</v>
@@ -2850,10 +2889,10 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>87</v>
@@ -2865,21 +2904,21 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2890,7 +2929,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2902,18 +2941,16 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2937,13 +2974,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2961,13 +2998,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -2979,18 +3016,18 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3001,7 +3038,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3013,17 +3050,15 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>182</v>
       </c>
@@ -3050,13 +3085,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3074,13 +3109,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3092,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>186</v>
@@ -3111,7 +3146,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -3126,7 +3161,7 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>188</v>
@@ -3163,7 +3198,7 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>192</v>
@@ -3190,7 +3225,7 @@
         <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -3202,21 +3237,21 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3239,17 +3274,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3274,13 +3311,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3298,7 +3335,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3313,21 +3350,21 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3335,7 +3372,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3350,17 +3387,17 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3385,13 +3422,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3409,10 +3446,10 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>87</v>
@@ -3424,21 +3461,21 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3449,7 +3486,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3458,20 +3495,18 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N19" t="s" s="2">
         <v>217</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>218</v>
       </c>
@@ -3498,13 +3533,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3522,19 +3557,19 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
@@ -3543,15 +3578,15 @@
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3562,7 +3597,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3574,16 +3609,20 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3631,25 +3670,25 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3657,21 +3696,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3683,17 +3722,15 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3742,25 +3779,25 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3768,14 +3805,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3788,26 +3825,24 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3855,7 +3890,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3873,7 +3908,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3881,42 +3916,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3940,13 +3979,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3964,25 +4003,25 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3990,10 +4029,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4016,17 +4055,15 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4051,31 +4088,31 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4084,7 +4121,7 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -4101,10 +4138,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4127,18 +4164,18 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4162,10 +4199,10 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4186,7 +4223,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4195,7 +4232,7 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>99</v>
@@ -4207,15 +4244,15 @@
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4238,18 +4275,18 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4297,7 +4334,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4318,15 +4355,15 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4346,19 +4383,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4408,7 +4445,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4429,15 +4466,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4457,19 +4494,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4519,7 +4556,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4540,15 +4577,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4568,18 +4605,20 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4628,7 +4667,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4640,24 +4679,24 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4665,11 +4704,11 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4680,13 +4719,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4725,37 +4764,37 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4763,10 +4802,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4777,7 +4816,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4789,17 +4828,15 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4836,19 +4873,19 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4874,12 +4911,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4897,19 +4936,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4959,25 +4998,25 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4985,10 +5024,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5011,16 +5050,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5046,13 +5085,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5079,7 +5118,7 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
@@ -5096,10 +5135,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5122,16 +5161,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5157,13 +5196,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5181,7 +5220,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5199,7 +5238,7 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5207,10 +5246,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5233,16 +5272,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5292,7 +5331,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5310,7 +5349,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5318,10 +5357,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5332,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5341,21 +5380,21 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5403,13 +5442,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5421,18 +5460,18 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5443,7 +5482,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5455,16 +5494,18 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5512,36 +5553,36 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5549,11 +5590,11 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5564,13 +5605,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5609,37 +5650,37 @@
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5647,10 +5688,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5673,13 +5714,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5718,19 +5759,19 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5756,12 +5797,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5779,19 +5822,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5841,25 +5884,25 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -5867,10 +5910,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5893,16 +5936,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5928,13 +5971,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -5961,7 +6004,7 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>99</v>
@@ -5978,10 +6021,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6004,16 +6047,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6039,13 +6082,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6063,7 +6106,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6124,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6089,10 +6132,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6115,16 +6158,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6174,7 +6217,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6235,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6200,10 +6243,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6214,7 +6257,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6223,23 +6266,21 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6287,13 +6328,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -6302,10 +6343,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6313,10 +6354,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6339,19 +6380,19 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6376,13 +6417,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6400,7 +6441,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6415,10 +6456,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6426,10 +6467,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6452,19 +6493,19 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6489,13 +6530,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6513,7 +6554,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6534,6 +6575,119 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Goal.xlsx
+++ b/StructureDefinition-profile-Goal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.140614-06:00</t>
+    <t>2026-02-17T14:42:26.8179202-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>After meeting the goal, ongoing activity is needed to sustain the goal objective.</t>
   </si>
   <si>
-    <t>Element `Goal.continuous` is will have a context of Goal based on following the parent source element upwards and mapping to `Goal`.</t>
+    <t>Element `Goal.continuous` has a context of Goal based on following the parent source element upwards and mapping to `Goal`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -754,13 +754,23 @@
     <t>Goal.target.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Goal.target.extension:target</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.target|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Goal.target from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Goal.target` has is mapped to FHIR R4 element `Goal.target`, but has no comparisons.</t>
   </si>
   <si>
     <t>Goal.target.modifierExtension</t>
@@ -909,7 +919,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Goal.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Goal.source` is mapped to FHIR R4 element `Goal.expressedBy`.</t>
+Element `Goal.source` has is mapped to FHIR R4 element `Goal.expressedBy`, but has no comparisons.</t>
   </si>
   <si>
     <t>Goal.expressedBy.reference</t>
@@ -1033,7 +1043,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Goal.addresses` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Goal.addresses` is mapped to FHIR R4 element `Goal.addresses`.</t>
+Element `Goal.addresses` has is mapped to FHIR R4 element `Goal.addresses`, but has no comparisons.</t>
   </si>
   <si>
     <t>Goal.addresses.reference</t>
@@ -1411,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3812,7 +3822,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3834,14 +3844,12 @@
         <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3878,19 +3886,17 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3908,7 +3914,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3916,14 +3922,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3936,26 +3944,24 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4012,7 +4018,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -4021,7 +4027,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4029,42 +4035,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4088,13 +4098,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4112,25 +4122,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4138,10 +4148,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4164,17 +4174,15 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4202,10 +4210,10 @@
         <v>183</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4223,7 +4231,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4249,10 +4257,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4275,18 +4283,18 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4310,10 +4318,10 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4334,7 +4342,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4343,7 +4351,7 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
@@ -4355,15 +4363,15 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4386,18 +4394,18 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4445,7 +4453,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4466,15 +4474,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4494,19 +4502,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4556,7 +4564,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4577,15 +4585,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4605,19 +4613,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4667,7 +4675,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4688,15 +4696,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4716,18 +4724,20 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4776,7 +4786,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4788,24 +4798,24 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4816,7 +4826,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4828,13 +4838,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4873,37 +4883,37 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4911,14 +4921,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" t="s" s="2">
         <v>282</v>
       </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4939,17 +4947,15 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4986,19 +4992,19 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5024,12 +5030,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5047,19 +5055,19 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5109,25 +5117,25 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5135,10 +5143,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5161,16 +5169,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5196,13 +5204,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5220,7 +5228,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5229,7 +5237,7 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
@@ -5246,10 +5254,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5272,16 +5280,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5307,13 +5315,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5331,7 +5339,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5349,7 +5357,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5357,10 +5365,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5383,16 +5391,16 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5442,7 +5450,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5460,7 +5468,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5468,10 +5476,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5482,7 +5490,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5491,21 +5499,21 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5553,13 +5561,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5571,18 +5579,18 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5593,7 +5601,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5605,16 +5613,18 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5662,36 +5672,36 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5702,7 +5712,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5714,13 +5724,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5759,37 +5769,37 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5797,14 +5807,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5813,7 +5821,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5825,17 +5833,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5872,19 +5878,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5910,12 +5916,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
@@ -5933,19 +5941,19 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5995,25 +6003,25 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6021,10 +6029,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6047,16 +6055,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6082,13 +6090,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6106,7 +6114,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6115,7 +6123,7 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
@@ -6132,10 +6140,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6158,16 +6166,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6193,13 +6201,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6217,7 +6225,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6235,7 +6243,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6243,10 +6251,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6269,16 +6277,16 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6328,7 +6336,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6346,7 +6354,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6354,10 +6362,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6368,7 +6376,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6377,23 +6385,21 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6441,13 +6447,13 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
@@ -6456,10 +6462,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6467,10 +6473,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6493,19 +6499,19 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6530,13 +6536,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6554,7 +6560,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6569,10 +6575,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6580,10 +6586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6606,19 +6612,19 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6643,13 +6649,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6667,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6688,6 +6694,119 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Goal.xlsx
+++ b/StructureDefinition-profile-Goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8179202-06:00</t>
+    <t>2026-02-20T11:59:20.8206483-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Goal|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Goal</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>continuous</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.continuous|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.continuous}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>target</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.target|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.target}
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
     <t>source</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Goal.xlsx
+++ b/StructureDefinition-profile-Goal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8206483-06:00</t>
+    <t>2026-02-21T13:36:54.2394001-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Goal</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Goal|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>continuous</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.continuous}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.continuous|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -754,23 +754,13 @@
     <t>Goal.target.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Goal.target.extension:target</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Goal.target}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Goal.target from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Goal.target` has is mapped to FHIR R4 element `Goal.target`, but has no comparisons.</t>
   </si>
   <si>
     <t>Goal.target.modifierExtension</t>
@@ -893,115 +883,6 @@
     <t>FiveWs.source</t>
   </si>
   <si>
-    <t>Goal.expressedBy.id</t>
-  </si>
-  <si>
-    <t>Goal.expressedBy.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Goal.expressedBy.extension:source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Goal.source from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Goal.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Goal.source` has is mapped to FHIR R4 element `Goal.expressedBy`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Goal.expressedBy.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Goal.expressedBy.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Goal.expressedBy.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Goal.expressedBy.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Goal.addresses</t>
   </si>
   <si>
@@ -1022,40 +903,6 @@
   </si>
   <si>
     <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Goal.addresses.id</t>
-  </si>
-  <si>
-    <t>Goal.addresses.extension</t>
-  </si>
-  <si>
-    <t>Goal.addresses.extension:addresses</t>
-  </si>
-  <si>
-    <t>addresses</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Goal.addresses from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/Procedure in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Goal.addresses` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Goal.addresses` has is mapped to FHIR R4 element `Goal.addresses`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Goal.addresses.reference</t>
-  </si>
-  <si>
-    <t>Goal.addresses.type</t>
-  </si>
-  <si>
-    <t>Goal.addresses.identifier</t>
-  </si>
-  <si>
-    <t>Goal.addresses.display</t>
   </si>
   <si>
     <t>Goal.note</t>
@@ -1421,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1430,7 +1277,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1458,7 +1305,7 @@
     <col min="26" max="26" width="43.890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3822,7 +3669,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3844,12 +3691,14 @@
         <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3886,17 +3735,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3914,7 +3765,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3922,16 +3773,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3944,24 +3793,26 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4009,7 +3860,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4018,7 +3869,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -4027,7 +3878,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4035,46 +3886,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4098,13 +3945,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4122,25 +3969,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4148,10 +3995,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4174,15 +4021,17 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4210,10 +4059,10 @@
         <v>183</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4231,7 +4080,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4257,10 +4106,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4283,18 +4132,18 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4318,10 +4167,10 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4342,7 +4191,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4351,7 +4200,7 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
@@ -4363,15 +4212,15 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4394,18 +4243,18 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4453,7 +4302,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4474,15 +4323,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4502,19 +4351,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4564,7 +4413,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4585,15 +4434,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4613,19 +4462,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4675,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4696,15 +4545,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4715,7 +4564,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4724,21 +4573,21 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4786,13 +4635,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4804,18 +4653,18 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4826,7 +4675,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4838,16 +4687,20 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4895,25 +4748,25 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4921,10 +4774,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4947,16 +4800,20 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4980,31 +4837,31 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5016,7 +4873,7 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
@@ -5030,14 +4887,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5046,7 +4901,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5058,18 +4913,20 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5117,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5129,7 +4986,7 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5138,1675 +4995,6 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
     </row>
